--- a/src/test/resources/TestData/TestData1.xlsx
+++ b/src/test/resources/TestData/TestData1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\eclipse-workspace\SimplePOMFramework\src\main\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\eclipse-workspace\SimplePOMFramework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A48F9-5413-4AE9-868E-89D1C6A5A739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DD2B69-4DCE-4F18-B721-59936C6CA38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54C12B38-C36D-4379-8497-FB45034BD8CB}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Regression</t>
   </si>
   <si>
-    <t xml:space="preserve">My Store Application - </t>
-  </si>
-  <si>
     <t>Pages Classes</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>LoginTc</t>
+  </si>
+  <si>
+    <t>My Project</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -573,12 +573,12 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -587,36 +587,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5DD765-7A1A-4635-A9C5-C6D318933E41}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/src/test/resources/TestData/TestData1.xlsx
+++ b/src/test/resources/TestData/TestData1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\eclipse-workspace\SimplePOMFramework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DD2B69-4DCE-4F18-B721-59936C6CA38C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31190554-E551-40B8-BA7D-2E8AE9FE4A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54C12B38-C36D-4379-8497-FB45034BD8CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{54C12B38-C36D-4379-8497-FB45034BD8CB}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="2" r:id="rId1"/>
-    <sheet name="Credentials" sheetId="1" r:id="rId2"/>
+    <sheet name="LoginDetails" sheetId="3" r:id="rId2"/>
+    <sheet name="AddPatientDetails" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,64 +27,172 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Sanity</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Pages Classes</t>
+  </si>
+  <si>
+    <t>TestClasses</t>
+  </si>
+  <si>
+    <t>TestCases</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>User should be able to login</t>
+  </si>
+  <si>
+    <t>LoginTestCase</t>
+  </si>
+  <si>
+    <t>My Project</t>
+  </si>
+  <si>
+    <t>OrganizationID</t>
+  </si>
+  <si>
+    <t>vendortest100</t>
+  </si>
+  <si>
+    <t>mohapam@gmail.com</t>
+  </si>
+  <si>
+    <t>Dwj&amp;JGl$735A</t>
+  </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin </t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Sanity</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Pages Classes</t>
-  </si>
-  <si>
-    <t>TestClasses</t>
-  </si>
-  <si>
-    <t>TestCases</t>
-  </si>
-  <si>
-    <t>Grouping</t>
-  </si>
-  <si>
-    <t>Expected Results</t>
-  </si>
-  <si>
-    <t>LoginPage</t>
-  </si>
-  <si>
-    <t>User should be able to login</t>
-  </si>
-  <si>
-    <t>LoginTestCase</t>
-  </si>
-  <si>
-    <t>LoginTc</t>
-  </si>
-  <si>
-    <t>My Project</t>
+    <t>EmailID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>ProofType</t>
+  </si>
+  <si>
+    <t>ProofNumber</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>ReferenceId</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>FathersName</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Aadhar Card</t>
+  </si>
+  <si>
+    <t>897400987656</t>
+  </si>
+  <si>
+    <t>Govt. Officer</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Kettan</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Janhit</t>
+  </si>
+  <si>
+    <t>Kettansingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Janhit Mein</t>
+  </si>
+  <si>
+    <t>No.12, Kamarajar Street,  Chennai</t>
+  </si>
+  <si>
+    <t>AddPatient</t>
+  </si>
+  <si>
+    <t>AddPatientDetails</t>
+  </si>
+  <si>
+    <t>loginTestcase</t>
+  </si>
+  <si>
+    <t>addpatientDetails</t>
+  </si>
+  <si>
+    <t>Patient details should be   added</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,21 +202,30 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,30 +312,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFFE1D3-980E-45DA-B014-4CB9D0E94553}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,70 +683,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -628,38 +775,204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5DD765-7A1A-4635-A9C5-C6D318933E41}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC82104-7AE7-45AA-A03F-0C45EAACC828}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6748CD09-DBD2-4501-8EBC-5069A32E5A0A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5515727F-5DF8-4F12-B361-BF7D4CFF18C6}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="12">
+        <v>29868</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="17">
+        <v>4563378298</v>
+      </c>
+      <c r="O2" s="17">
+        <v>8700981234</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{BB5FF023-62ED-4CF0-A5D0-03449406EBEF}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{94858888-6C8D-4E6C-92D3-754905202ACD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/TestData1.xlsx
+++ b/src/test/resources/TestData/TestData1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\eclipse-workspace\SimplePOMFramework\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\eclipse-workspace\T01_IDP_Patients\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31190554-E551-40B8-BA7D-2E8AE9FE4A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934BFB7B-5140-4790-BFF7-7273EDC8587F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{54C12B38-C36D-4379-8497-FB45034BD8CB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Smoke</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>ProofUploadLocation</t>
+  </si>
+  <si>
+    <t>C:\Users\Home\eclipse-workspace\T01_IDP_Patients\src\test\resources\ProofDocuments\aadhar_card.jpg</t>
   </si>
 </sst>
 </file>
@@ -316,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,6 +341,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -344,7 +352,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -707,13 +714,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -822,10 +829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5515727F-5DF8-4F12-B361-BF7D4CFF18C6}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,15 +848,15 @@
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="13.21875" customWidth="1"/>
     <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="12" max="13" width="18.33203125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -886,29 +893,32 @@
       <c r="L1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -942,37 +952,41 @@
       <c r="K2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="17">
+      <c r="O2" s="14">
         <v>4563378298</v>
       </c>
-      <c r="O2" s="17">
+      <c r="P2" s="14">
         <v>8700981234</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{BB5FF023-62ED-4CF0-A5D0-03449406EBEF}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{BB5FF023-62ED-4CF0-A5D0-03449406EBEF}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{94858888-6C8D-4E6C-92D3-754905202ACD}"/>
+    <hyperlink ref="M2" r:id="rId3" display="\\src\\test\\resources\\ProofDocuments\\aadhar_card.jpg" xr:uid="{0A06E503-AAEA-4404-8FF2-97B76D556194}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>